--- a/closing checklist2.xlsx
+++ b/closing checklist2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t xml:space="preserve">SAMPLE CLOSING CHECKLIST-HOUSING/COMMERCIAL ACQUISITION CLOSING CHECK LIST
 </t>
@@ -340,6 +340,36 @@
   </si>
   <si>
     <t>555 Test</t>
+  </si>
+  <si>
+    <t>New Category</t>
+  </si>
+  <si>
+    <t>New Value</t>
+  </si>
+  <si>
+    <t>http://google.com</t>
+  </si>
+  <si>
+    <t>New Title 2</t>
+  </si>
+  <si>
+    <t>Andy Category</t>
+  </si>
+  <si>
+    <t>Andy Title</t>
+  </si>
+  <si>
+    <t>Andy Value</t>
+  </si>
+  <si>
+    <t>http://andy.com</t>
+  </si>
+  <si>
+    <t>Andy Title 2</t>
+  </si>
+  <si>
+    <t>Andy Value 2</t>
   </si>
 </sst>
 </file>
@@ -822,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A3968-56C9-41CE-A538-20733FBC7696}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,28 +1918,56 @@
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="F61" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="A62" s="7">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="F62" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="A63" s="7">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>

--- a/closing checklist2.xlsx
+++ b/closing checklist2.xlsx
@@ -381,13 +381,13 @@
     <t>Andy Category 3</t>
   </si>
   <si>
-    <t>Category 4</t>
-  </si>
-  <si>
     <t>Title 4</t>
   </si>
   <si>
     <t>Value 4</t>
+  </si>
+  <si>
+    <t>Category 5</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,13 +2012,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>

--- a/closing checklist2.xlsx
+++ b/closing checklist2.xlsx
@@ -387,7 +387,7 @@
     <t>Value 4</t>
   </si>
   <si>
-    <t>Category 5</t>
+    <t>Category 6</t>
   </si>
 </sst>
 </file>
